--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -492,19 +492,19 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>91727.27</v>
+        <v>91410.83</v>
       </c>
       <c r="E2">
-        <v>35.8</v>
+        <v>35</v>
       </c>
       <c r="F2">
-        <v>8.359999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="G2">
         <v>30</v>
       </c>
       <c r="H2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I2">
         <v>53</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -49,7 +49,7 @@
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-27</t>
+    <t>2025-11-28</t>
   </si>
   <si>
     <t>Bitcoin USD</t>
@@ -492,13 +492,13 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>91410.83</v>
+        <v>90801.8</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>33.6</v>
       </c>
       <c r="F2">
-        <v>7.99</v>
+        <v>7.27</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -510,7 +510,7 @@
         <v>53</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>날짜</t>
   </si>
@@ -34,55 +34,73 @@
     <t>5일수익률</t>
   </si>
   <si>
-    <t>점수</t>
-  </si>
-  <si>
-    <t>3일확률</t>
-  </si>
-  <si>
-    <t>5일확률</t>
-  </si>
-  <si>
-    <t>10일확률</t>
+    <t>점수(룰)</t>
+  </si>
+  <si>
+    <t>3일상승확률(%)</t>
+  </si>
+  <si>
+    <t>5일상승확률(%)</t>
+  </si>
+  <si>
+    <t>10일상승확률(%)</t>
+  </si>
+  <si>
+    <t>최종점수</t>
+  </si>
+  <si>
+    <t>예측방식</t>
   </si>
   <si>
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-28</t>
+    <t>MACRO_SCORE</t>
+  </si>
+  <si>
+    <t>MACRO_SIGNAL</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>Riot Platforms, Inc.</t>
+  </si>
+  <si>
+    <t>Coinbase Global, Inc.</t>
   </si>
   <si>
     <t>Bitcoin USD</t>
   </si>
   <si>
-    <t>Coinbase Global, Inc.</t>
-  </si>
-  <si>
-    <t>Riot Platforms, Inc.</t>
-  </si>
-  <si>
     <t>MARA Holdings, Inc.</t>
   </si>
   <si>
     <t>Strategy Inc</t>
   </si>
   <si>
+    <t>RIOT</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
     <t>BTC-USD</t>
   </si>
   <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>RIOT</t>
-  </si>
-  <si>
     <t>MARA</t>
   </si>
   <si>
     <t>MSTR</t>
   </si>
   <si>
-    <t>건드리지 말기</t>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>⛔ 관망하십시오.</t>
+  </si>
+  <si>
+    <t>🟢 완화적 (상승 우위)</t>
   </si>
 </sst>
 </file>
@@ -440,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,180 +498,237 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>90801.8</v>
-      </c>
-      <c r="E2">
-        <v>33.6</v>
+        <v>16.11</v>
       </c>
       <c r="F2">
-        <v>7.27</v>
+        <v>26.1</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>56</v>
       </c>
       <c r="I2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J2">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>57.6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
       <c r="D3">
-        <v>264.97</v>
-      </c>
-      <c r="E3">
-        <v>38.8</v>
+        <v>272.82</v>
       </c>
       <c r="F3">
-        <v>2.98</v>
+        <v>14.55</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>53</v>
       </c>
       <c r="J3">
-        <v>53</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="K3">
+        <v>52.8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>14.96</v>
-      </c>
-      <c r="E4">
-        <v>34.7</v>
+        <v>90735</v>
       </c>
       <c r="F4">
-        <v>12.06</v>
+        <v>4.53</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>53</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>56</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>50.6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>11.11</v>
-      </c>
-      <c r="E5">
-        <v>19.2</v>
+        <v>11.78</v>
       </c>
       <c r="F5">
-        <v>0.09</v>
+        <v>15.09</v>
       </c>
       <c r="G5">
         <v>20</v>
       </c>
       <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>46</v>
+      </c>
+      <c r="J5">
         <v>56</v>
       </c>
-      <c r="I5">
-        <v>43</v>
-      </c>
-      <c r="J5">
-        <v>53</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>175.64</v>
-      </c>
-      <c r="E6">
-        <v>23.9</v>
+        <v>177.26</v>
       </c>
       <c r="F6">
-        <v>-5.82</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I6">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>36</v>
       </c>
-      <c r="K6" t="s">
-        <v>22</v>
+      <c r="K6">
+        <v>47.6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -522,10 +522,10 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>16.11</v>
+        <v>16.13</v>
       </c>
       <c r="F2">
-        <v>26.1</v>
+        <v>26.21</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -540,7 +540,7 @@
         <v>60</v>
       </c>
       <c r="K2">
-        <v>57.6</v>
+        <v>57.8</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -549,7 +549,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -584,7 +584,7 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>52.8</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -610,7 +610,7 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>90735</v>
+        <v>90734.73</v>
       </c>
       <c r="F4">
         <v>4.53</v>
@@ -628,7 +628,7 @@
         <v>40</v>
       </c>
       <c r="K4">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -637,7 +637,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -654,10 +654,10 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>11.78</v>
+        <v>11.81</v>
       </c>
       <c r="F5">
-        <v>15.09</v>
+        <v>15.33</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -672,7 +672,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -681,7 +681,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -698,10 +698,10 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>177.26</v>
+        <v>177.18</v>
       </c>
       <c r="F6">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -716,7 +716,7 @@
         <v>36</v>
       </c>
       <c r="K6">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -549,7 +549,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -593,7 +593,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -610,10 +610,10 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>90734.73</v>
+        <v>90865.73</v>
       </c>
       <c r="F4">
-        <v>4.53</v>
+        <v>4.68</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -637,7 +637,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -681,7 +681,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -540,7 +540,7 @@
         <v>60</v>
       </c>
       <c r="K2">
-        <v>57.8</v>
+        <v>57.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -549,7 +549,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -584,7 +584,7 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -610,10 +610,10 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>90865.73</v>
+        <v>90850.27</v>
       </c>
       <c r="F4">
-        <v>4.68</v>
+        <v>4.66</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -628,7 +628,7 @@
         <v>40</v>
       </c>
       <c r="K4">
-        <v>50.8</v>
+        <v>50.7</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -637,7 +637,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -672,7 +672,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>50.2</v>
+        <v>50.1</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -681,7 +681,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -716,7 +716,7 @@
         <v>36</v>
       </c>
       <c r="K6">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -549,7 +549,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -593,7 +593,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -610,10 +610,10 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>90850.27</v>
+        <v>90922.84</v>
       </c>
       <c r="F4">
-        <v>4.66</v>
+        <v>4.74</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -637,7 +637,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -681,7 +681,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -540,7 +540,7 @@
         <v>60</v>
       </c>
       <c r="K2">
-        <v>57.7</v>
+        <v>57.8</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -549,7 +549,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -584,7 +584,7 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -593,7 +593,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -610,7 +610,7 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>90922.84</v>
+        <v>90923.57000000001</v>
       </c>
       <c r="F4">
         <v>4.74</v>
@@ -628,7 +628,7 @@
         <v>40</v>
       </c>
       <c r="K4">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -637,7 +637,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -672,7 +672,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -681,7 +681,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -716,7 +716,7 @@
         <v>36</v>
       </c>
       <c r="K6">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -549,7 +549,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -593,7 +593,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -610,25 +610,25 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>90923.57000000001</v>
+        <v>90977.63</v>
       </c>
       <c r="F4">
-        <v>4.74</v>
+        <v>4.81</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
       <c r="H4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>50.8</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -637,7 +637,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -681,7 +681,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -549,7 +549,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -593,7 +593,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -610,10 +610,10 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>90992.48</v>
+        <v>91175.60000000001</v>
       </c>
       <c r="F4">
-        <v>4.82</v>
+        <v>5.03</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -637,7 +637,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -681,7 +681,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>날짜</t>
   </si>
@@ -67,12 +67,12 @@
     <t>Riot Platforms, Inc.</t>
   </si>
   <si>
+    <t>Bitcoin USD</t>
+  </si>
+  <si>
     <t>Coinbase Global, Inc.</t>
   </si>
   <si>
-    <t>Bitcoin USD</t>
-  </si>
-  <si>
     <t>MARA Holdings, Inc.</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>RIOT</t>
   </si>
   <si>
+    <t>BTC-USD</t>
+  </si>
+  <si>
     <t>COIN</t>
   </si>
   <si>
-    <t>BTC-USD</t>
-  </si>
-  <si>
     <t>MARA</t>
   </si>
   <si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -524,11 +527,14 @@
       <c r="D2">
         <v>16.13</v>
       </c>
+      <c r="E2">
+        <v>44.9</v>
+      </c>
       <c r="F2">
         <v>26.21</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -540,7 +546,7 @@
         <v>60</v>
       </c>
       <c r="K2">
-        <v>57.8</v>
+        <v>60.8</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -549,10 +555,10 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -566,37 +572,40 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>272.82</v>
+        <v>90939.73</v>
+      </c>
+      <c r="E3">
+        <v>42.4</v>
       </c>
       <c r="F3">
-        <v>14.55</v>
+        <v>4.76</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -610,37 +619,40 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>91175.60000000001</v>
+        <v>272.82</v>
+      </c>
+      <c r="E4">
+        <v>35.9</v>
       </c>
       <c r="F4">
-        <v>5.03</v>
+        <v>14.55</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -656,6 +668,9 @@
       <c r="D5">
         <v>11.81</v>
       </c>
+      <c r="E5">
+        <v>26.1</v>
+      </c>
       <c r="F5">
         <v>15.33</v>
       </c>
@@ -678,13 +693,13 @@
         <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N5">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -700,6 +715,9 @@
       <c r="D6">
         <v>177.18</v>
       </c>
+      <c r="E6">
+        <v>21.7</v>
+      </c>
       <c r="F6">
         <v>0.03</v>
       </c>
@@ -722,13 +740,13 @@
         <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-11-29</t>
+    <t>2025-12-01</t>
   </si>
   <si>
     <t>Riot Platforms, Inc.</t>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -572,28 +572,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>90939.73</v>
+        <v>91492.55</v>
       </c>
       <c r="E3">
-        <v>42.4</v>
+        <v>43.5</v>
       </c>
       <c r="F3">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="G3">
         <v>40</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J3">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>55</v>
+        <v>56.2</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -572,13 +572,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>91492.55</v>
+        <v>91475.77</v>
       </c>
       <c r="E3">
         <v>43.5</v>
       </c>
       <c r="F3">
-        <v>4.75</v>
+        <v>4.73</v>
       </c>
       <c r="G3">
         <v>40</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -67,28 +67,28 @@
     <t>Riot Platforms, Inc.</t>
   </si>
   <si>
+    <t>Coinbase Global, Inc.</t>
+  </si>
+  <si>
+    <t>MARA Holdings, Inc.</t>
+  </si>
+  <si>
     <t>Bitcoin USD</t>
   </si>
   <si>
-    <t>Coinbase Global, Inc.</t>
-  </si>
-  <si>
-    <t>MARA Holdings, Inc.</t>
-  </si>
-  <si>
     <t>Strategy Inc</t>
   </si>
   <si>
     <t>RIOT</t>
   </si>
   <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
     <t>BTC-USD</t>
-  </si>
-  <si>
-    <t>COIN</t>
-  </si>
-  <si>
-    <t>MARA</t>
   </si>
   <si>
     <t>MSTR</t>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -572,28 +572,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>91475.77</v>
+        <v>272.82</v>
       </c>
       <c r="E3">
-        <v>43.5</v>
+        <v>35.9</v>
       </c>
       <c r="F3">
-        <v>4.73</v>
+        <v>14.55</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I3">
+        <v>53</v>
+      </c>
+      <c r="J3">
         <v>46</v>
       </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
       <c r="K3">
-        <v>56.2</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -619,13 +619,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>272.82</v>
+        <v>11.81</v>
       </c>
       <c r="E4">
-        <v>35.9</v>
+        <v>26.1</v>
       </c>
       <c r="F4">
-        <v>14.55</v>
+        <v>15.33</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -634,13 +634,13 @@
         <v>50</v>
       </c>
       <c r="I4">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J4">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>53</v>
+        <v>50.2</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -649,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -666,28 +666,28 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>11.81</v>
+        <v>85851.67999999999</v>
       </c>
       <c r="E5">
-        <v>26.1</v>
+        <v>33.5</v>
       </c>
       <c r="F5">
-        <v>15.33</v>
+        <v>-1.71</v>
       </c>
       <c r="G5">
         <v>20</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I5">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J5">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>50.2</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -743,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="N6">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>날짜</t>
   </si>
@@ -61,49 +61,46 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-01</t>
+    <t>2025-12-03</t>
   </si>
   <si>
     <t>Riot Platforms, Inc.</t>
   </si>
   <si>
+    <t>Bitcoin USD</t>
+  </si>
+  <si>
     <t>Coinbase Global, Inc.</t>
   </si>
   <si>
     <t>MARA Holdings, Inc.</t>
   </si>
   <si>
-    <t>Bitcoin USD</t>
-  </si>
-  <si>
     <t>Strategy Inc</t>
   </si>
   <si>
     <t>RIOT</t>
   </si>
   <si>
+    <t>BTC-USD</t>
+  </si>
+  <si>
     <t>COIN</t>
   </si>
   <si>
     <t>MARA</t>
   </si>
   <si>
-    <t>BTC-USD</t>
-  </si>
-  <si>
     <t>MSTR</t>
   </si>
   <si>
     <t>Pattern</t>
   </si>
   <si>
-    <t>📈 매수 관찰 구간입니다.</t>
-  </si>
-  <si>
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 완화적 (상승 우위)</t>
+    <t>🟢 상승 우위 (다소 완화)</t>
   </si>
 </sst>
 </file>
@@ -525,28 +522,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>16.13</v>
+        <v>15.68</v>
       </c>
       <c r="E2">
-        <v>44.9</v>
+        <v>47.1</v>
       </c>
       <c r="F2">
-        <v>26.21</v>
+        <v>12.93</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J2">
         <v>60</v>
       </c>
       <c r="K2">
-        <v>60.8</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -555,10 +552,10 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -572,40 +569,40 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>272.82</v>
+        <v>91512.91</v>
       </c>
       <c r="E3">
-        <v>35.9</v>
+        <v>47.3</v>
       </c>
       <c r="F3">
-        <v>14.55</v>
+        <v>0.25</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>53</v>
+        <v>50.6</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
       </c>
       <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O3" t="s">
         <v>28</v>
-      </c>
-      <c r="N3">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -619,40 +616,40 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>11.81</v>
+        <v>268.74</v>
       </c>
       <c r="E4">
-        <v>26.1</v>
+        <v>36.2</v>
       </c>
       <c r="F4">
-        <v>15.33</v>
+        <v>4.99</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I4">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>50.2</v>
+        <v>49.8</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
       <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O4" t="s">
         <v>28</v>
-      </c>
-      <c r="N4">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -666,40 +663,40 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>85851.67999999999</v>
+        <v>12.15</v>
       </c>
       <c r="E5">
-        <v>33.5</v>
+        <v>34.8</v>
       </c>
       <c r="F5">
-        <v>-1.71</v>
+        <v>8.34</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I5">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K5">
-        <v>49</v>
+        <v>48.6</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
       </c>
       <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O5" t="s">
         <v>28</v>
-      </c>
-      <c r="N5">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -713,40 +710,40 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>177.18</v>
+        <v>183.43</v>
       </c>
       <c r="E6">
-        <v>21.7</v>
+        <v>30.3</v>
       </c>
       <c r="F6">
-        <v>0.03</v>
+        <v>2.45</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I6">
+        <v>36</v>
+      </c>
+      <c r="J6">
         <v>40</v>
       </c>
-      <c r="J6">
-        <v>36</v>
-      </c>
       <c r="K6">
-        <v>47.8</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
       </c>
       <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O6" t="s">
         <v>28</v>
-      </c>
-      <c r="N6">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -64,12 +64,12 @@
     <t>2025-12-03</t>
   </si>
   <si>
+    <t>Bitcoin USD</t>
+  </si>
+  <si>
     <t>Riot Platforms, Inc.</t>
   </si>
   <si>
-    <t>Bitcoin USD</t>
-  </si>
-  <si>
     <t>Coinbase Global, Inc.</t>
   </si>
   <si>
@@ -79,10 +79,10 @@
     <t>Strategy Inc</t>
   </si>
   <si>
+    <t>BTC-USD</t>
+  </si>
+  <si>
     <t>RIOT</t>
-  </si>
-  <si>
-    <t>BTC-USD</t>
   </si>
   <si>
     <t>COIN</t>
@@ -522,28 +522,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>15.68</v>
+        <v>91451.64999999999</v>
       </c>
       <c r="E2">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="F2">
-        <v>12.93</v>
+        <v>0.18</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I2">
+        <v>40</v>
+      </c>
+      <c r="J2">
         <v>46</v>
       </c>
-      <c r="J2">
-        <v>60</v>
-      </c>
       <c r="K2">
-        <v>56</v>
+        <v>50.8</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,28 +569,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>91512.91</v>
+        <v>15.22</v>
       </c>
       <c r="E3">
-        <v>47.3</v>
+        <v>44.3</v>
       </c>
       <c r="F3">
-        <v>0.25</v>
+        <v>9.65</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K3">
-        <v>50.6</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>268.74</v>
+        <v>263.26</v>
       </c>
       <c r="E4">
-        <v>36.2</v>
+        <v>33.3</v>
       </c>
       <c r="F4">
-        <v>4.99</v>
+        <v>2.85</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>60</v>
       </c>
       <c r="K4">
-        <v>49.8</v>
+        <v>48.8</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,19 +663,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>12.15</v>
+        <v>11.91</v>
       </c>
       <c r="E5">
-        <v>34.8</v>
+        <v>32.8</v>
       </c>
       <c r="F5">
-        <v>8.34</v>
+        <v>6.24</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -684,7 +684,7 @@
         <v>60</v>
       </c>
       <c r="K5">
-        <v>48.6</v>
+        <v>48.8</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,28 +710,28 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>183.43</v>
+        <v>181.33</v>
       </c>
       <c r="E6">
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
       <c r="F6">
-        <v>2.45</v>
+        <v>1.28</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
       <c r="H6">
+        <v>43</v>
+      </c>
+      <c r="I6">
         <v>40</v>
       </c>
-      <c r="I6">
-        <v>36</v>
-      </c>
       <c r="J6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>43</v>
+        <v>44.8</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>91451.64999999999</v>
+        <v>91345.09</v>
       </c>
       <c r="E2">
-        <v>47.2</v>
+        <v>47</v>
       </c>
       <c r="F2">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2">
         <v>50</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>91345.09</v>
+        <v>91589.32000000001</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="F2">
-        <v>0.07000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -61,15 +61,15 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-03</t>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>Riot Platforms, Inc.</t>
   </si>
   <si>
     <t>Bitcoin USD</t>
   </si>
   <si>
-    <t>Riot Platforms, Inc.</t>
-  </si>
-  <si>
     <t>Coinbase Global, Inc.</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>Strategy Inc</t>
   </si>
   <si>
+    <t>RIOT</t>
+  </si>
+  <si>
     <t>BTC-USD</t>
   </si>
   <si>
-    <t>RIOT</t>
-  </si>
-  <si>
     <t>COIN</t>
   </si>
   <si>
@@ -100,7 +100,7 @@
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 상승 우위 (다소 완화)</t>
+    <t>⚪ 중립 구간</t>
   </si>
 </sst>
 </file>
@@ -522,28 +522,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>91589.32000000001</v>
+        <v>15.64</v>
       </c>
       <c r="E2">
-        <v>47.5</v>
+        <v>64.2</v>
       </c>
       <c r="F2">
-        <v>0.33</v>
+        <v>4.55</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="J2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="K2">
-        <v>50.8</v>
+        <v>58.9</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,28 +569,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>15.22</v>
+        <v>92449.78999999999</v>
       </c>
       <c r="E3">
-        <v>44.3</v>
+        <v>62.3</v>
       </c>
       <c r="F3">
-        <v>9.65</v>
+        <v>1.76</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>43</v>
       </c>
       <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
         <v>43</v>
       </c>
-      <c r="J3">
-        <v>60</v>
-      </c>
       <c r="K3">
-        <v>49</v>
+        <v>53.7</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>263.26</v>
+        <v>279.16</v>
       </c>
       <c r="E4">
-        <v>33.3</v>
+        <v>48.3</v>
       </c>
       <c r="F4">
-        <v>2.85</v>
+        <v>5.36</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J4">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>48.8</v>
+        <v>51.9</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,28 +663,28 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>11.91</v>
+        <v>12.44</v>
       </c>
       <c r="E5">
-        <v>32.8</v>
+        <v>47.4</v>
       </c>
       <c r="F5">
-        <v>6.24</v>
+        <v>11.93</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J5">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,28 +710,28 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>181.33</v>
+        <v>188.65</v>
       </c>
       <c r="E6">
-        <v>29.1</v>
+        <v>40.5</v>
       </c>
       <c r="F6">
-        <v>1.28</v>
+        <v>7.41</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J6">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>44.8</v>
+        <v>38.1</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>15.64</v>
+        <v>15.65</v>
       </c>
       <c r="E2">
-        <v>64.2</v>
+        <v>64.3</v>
       </c>
       <c r="F2">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>92449.78999999999</v>
+        <v>92479.06</v>
       </c>
       <c r="E3">
         <v>62.3</v>
       </c>
       <c r="F3">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,13 +616,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>279.16</v>
+        <v>278.97</v>
       </c>
       <c r="E4">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="F4">
-        <v>5.36</v>
+        <v>5.28</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,13 +663,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>12.44</v>
+        <v>12.47</v>
       </c>
       <c r="E5">
-        <v>47.4</v>
+        <v>47.6</v>
       </c>
       <c r="F5">
-        <v>11.93</v>
+        <v>12.2</v>
       </c>
       <c r="G5">
         <v>40</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>188.65</v>
+        <v>188.96</v>
       </c>
       <c r="E6">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="F6">
-        <v>7.41</v>
+        <v>7.58</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>15.65</v>
+        <v>15.6</v>
       </c>
       <c r="E2">
-        <v>64.3</v>
+        <v>63.8</v>
       </c>
       <c r="F2">
-        <v>4.65</v>
+        <v>4.24</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -543,7 +543,7 @@
         <v>76</v>
       </c>
       <c r="K2">
-        <v>58.9</v>
+        <v>59.3</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>92479.06</v>
+        <v>92248.23</v>
       </c>
       <c r="E3">
-        <v>62.3</v>
+        <v>61.7</v>
       </c>
       <c r="F3">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -590,7 +590,7 @@
         <v>43</v>
       </c>
       <c r="K3">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>278.97</v>
+        <v>276.51</v>
       </c>
       <c r="E4">
-        <v>48.2</v>
+        <v>47.1</v>
       </c>
       <c r="F4">
-        <v>5.28</v>
+        <v>4.36</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
       <c r="H4">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I4">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>51.9</v>
+        <v>51.1</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,13 +663,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>12.47</v>
+        <v>12.42</v>
       </c>
       <c r="E5">
-        <v>47.6</v>
+        <v>47.3</v>
       </c>
       <c r="F5">
-        <v>12.2</v>
+        <v>11.83</v>
       </c>
       <c r="G5">
         <v>40</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>48.9</v>
+        <v>49.3</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>188.96</v>
+        <v>188.22</v>
       </c>
       <c r="E6">
-        <v>40.6</v>
+        <v>40.2</v>
       </c>
       <c r="F6">
-        <v>7.58</v>
+        <v>7.16</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -731,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>38.1</v>
+        <v>38.5</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>15.6</v>
+        <v>15.63</v>
       </c>
       <c r="E2">
-        <v>63.8</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F2">
-        <v>4.24</v>
+        <v>4.46</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>92248.23</v>
+        <v>92425.28999999999</v>
       </c>
       <c r="E3">
-        <v>61.7</v>
+        <v>62.2</v>
       </c>
       <c r="F3">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,13 +616,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>276.51</v>
+        <v>275.92</v>
       </c>
       <c r="E4">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="F4">
-        <v>4.36</v>
+        <v>4.13</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,13 +663,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>12.42</v>
+        <v>12.46</v>
       </c>
       <c r="E5">
-        <v>47.3</v>
+        <v>47.6</v>
       </c>
       <c r="F5">
-        <v>11.83</v>
+        <v>12.14</v>
       </c>
       <c r="G5">
         <v>40</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,16 +710,16 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>188.22</v>
+        <v>187.1</v>
       </c>
       <c r="E6">
-        <v>40.2</v>
+        <v>39.8</v>
       </c>
       <c r="F6">
-        <v>7.16</v>
+        <v>6.53</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>33</v>
@@ -731,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>38.5</v>
+        <v>35.5</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>15.63</v>
+        <v>15.72</v>
       </c>
       <c r="E2">
-        <v>64.09999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="F2">
-        <v>4.46</v>
+        <v>5.08</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -540,10 +540,10 @@
         <v>63</v>
       </c>
       <c r="J2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K2">
-        <v>59.3</v>
+        <v>59.4</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>92425.28999999999</v>
+        <v>92038.3</v>
       </c>
       <c r="E3">
-        <v>62.2</v>
+        <v>61.2</v>
       </c>
       <c r="F3">
-        <v>1.73</v>
+        <v>1.31</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -590,7 +590,7 @@
         <v>43</v>
       </c>
       <c r="K3">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,13 +616,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>275.92</v>
+        <v>275.46</v>
       </c>
       <c r="E4">
-        <v>46.9</v>
+        <v>46.7</v>
       </c>
       <c r="F4">
-        <v>4.13</v>
+        <v>3.96</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -637,7 +637,7 @@
         <v>50</v>
       </c>
       <c r="K4">
-        <v>51.1</v>
+        <v>51.2</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,13 +663,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>12.46</v>
+        <v>12.41</v>
       </c>
       <c r="E5">
-        <v>47.6</v>
+        <v>47.2</v>
       </c>
       <c r="F5">
-        <v>12.14</v>
+        <v>11.7</v>
       </c>
       <c r="G5">
         <v>40</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>187.1</v>
+        <v>186.65</v>
       </c>
       <c r="E6">
-        <v>39.8</v>
+        <v>39.6</v>
       </c>
       <c r="F6">
-        <v>6.53</v>
+        <v>6.27</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -731,7 +731,7 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>15.72</v>
+        <v>15.59</v>
       </c>
       <c r="E2">
-        <v>64.7</v>
+        <v>63.7</v>
       </c>
       <c r="F2">
-        <v>5.08</v>
+        <v>4.21</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -540,10 +540,10 @@
         <v>63</v>
       </c>
       <c r="J2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K2">
-        <v>59.4</v>
+        <v>59.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,28 +569,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>92038.3</v>
+        <v>92436.55</v>
       </c>
       <c r="E3">
-        <v>61.2</v>
+        <v>62.2</v>
       </c>
       <c r="F3">
-        <v>1.31</v>
+        <v>1.74</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>54.2</v>
+        <v>55.7</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,13 +616,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>275.46</v>
+        <v>274.05</v>
       </c>
       <c r="E4">
-        <v>46.7</v>
+        <v>46.1</v>
       </c>
       <c r="F4">
-        <v>3.96</v>
+        <v>3.43</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -634,10 +634,10 @@
         <v>50</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,13 +663,13 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>12.41</v>
+        <v>12.44</v>
       </c>
       <c r="E5">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="F5">
-        <v>11.7</v>
+        <v>11.97</v>
       </c>
       <c r="G5">
         <v>40</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>186.65</v>
+        <v>186.01</v>
       </c>
       <c r="E6">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="F6">
-        <v>6.27</v>
+        <v>5.9</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -728,10 +728,10 @@
         <v>26</v>
       </c>
       <c r="J6">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>92436.55</v>
+        <v>92563.78</v>
       </c>
       <c r="E3">
-        <v>62.2</v>
+        <v>62.6</v>
       </c>
       <c r="F3">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,7 +569,7 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>92563.78</v>
+        <v>92562.07000000001</v>
       </c>
       <c r="E3">
         <v>62.6</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -543,7 +543,7 @@
         <v>76</v>
       </c>
       <c r="K2">
-        <v>59.7</v>
+        <v>59.6</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>92562.07000000001</v>
+        <v>92070.92999999999</v>
       </c>
       <c r="E3">
-        <v>62.6</v>
+        <v>61.3</v>
       </c>
       <c r="F3">
-        <v>1.88</v>
+        <v>1.34</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -590,7 +590,7 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>40</v>
       </c>
       <c r="K6">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -543,7 +543,7 @@
         <v>76</v>
       </c>
       <c r="K2">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>92070.92999999999</v>
+        <v>92351.97</v>
       </c>
       <c r="E3">
-        <v>61.3</v>
+        <v>62</v>
       </c>
       <c r="F3">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -590,7 +590,7 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>40</v>
       </c>
       <c r="K6">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -543,7 +543,7 @@
         <v>76</v>
       </c>
       <c r="K2">
-        <v>59.7</v>
+        <v>59.6</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,28 +569,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>92351.97</v>
+        <v>92123.83</v>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F3">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I3">
         <v>53</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>40</v>
       </c>
       <c r="K6">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -543,7 +543,7 @@
         <v>76</v>
       </c>
       <c r="K2">
-        <v>59.6</v>
+        <v>58.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>92123.83</v>
+        <v>91442.35000000001</v>
       </c>
       <c r="E3">
-        <v>65.59999999999999</v>
+        <v>63.7</v>
       </c>
       <c r="F3">
-        <v>1.91</v>
+        <v>1.16</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -584,13 +584,13 @@
         <v>53</v>
       </c>
       <c r="I3">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>55.6</v>
+        <v>53.5</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>51.4</v>
+        <v>50.5</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>49.6</v>
+        <v>48.7</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>40</v>
       </c>
       <c r="K6">
-        <v>35.8</v>
+        <v>34.9</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -543,7 +543,7 @@
         <v>76</v>
       </c>
       <c r="K2">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>91442.35000000001</v>
+        <v>91159.81</v>
       </c>
       <c r="E3">
-        <v>63.7</v>
+        <v>62.9</v>
       </c>
       <c r="F3">
-        <v>1.16</v>
+        <v>0.85</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -590,7 +590,7 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -637,7 +637,7 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>50.5</v>
+        <v>50.3</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -684,7 +684,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -731,7 +731,7 @@
         <v>40</v>
       </c>
       <c r="K6">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>91159.81</v>
+        <v>91368.08</v>
       </c>
       <c r="E3">
-        <v>62.9</v>
+        <v>63.5</v>
       </c>
       <c r="F3">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-05</t>
+    <t>2025-12-06</t>
   </si>
   <si>
     <t>Riot Platforms, Inc.</t>
@@ -70,12 +70,12 @@
     <t>Bitcoin USD</t>
   </si>
   <si>
+    <t>MARA Holdings, Inc.</t>
+  </si>
+  <si>
     <t>Coinbase Global, Inc.</t>
   </si>
   <si>
-    <t>MARA Holdings, Inc.</t>
-  </si>
-  <si>
     <t>Strategy Inc</t>
   </si>
   <si>
@@ -85,10 +85,10 @@
     <t>BTC-USD</t>
   </si>
   <si>
+    <t>MARA</t>
+  </si>
+  <si>
     <t>COIN</t>
-  </si>
-  <si>
-    <t>MARA</t>
   </si>
   <si>
     <t>MSTR</t>
@@ -522,28 +522,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>15.59</v>
+        <v>15.27</v>
       </c>
       <c r="E2">
-        <v>63.7</v>
+        <v>60.2</v>
       </c>
       <c r="F2">
-        <v>4.21</v>
+        <v>-5.33</v>
       </c>
       <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>53</v>
+      </c>
+      <c r="I2">
         <v>60</v>
       </c>
-      <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="I2">
-        <v>63</v>
-      </c>
       <c r="J2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K2">
-        <v>58.5</v>
+        <v>54.5</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>91368.08</v>
+        <v>91134.45</v>
       </c>
       <c r="E3">
-        <v>63.5</v>
+        <v>62.9</v>
       </c>
       <c r="F3">
-        <v>1.08</v>
+        <v>0.82</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -590,7 +590,7 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>274.05</v>
+        <v>12.09</v>
       </c>
       <c r="E4">
-        <v>46.1</v>
+        <v>50.8</v>
       </c>
       <c r="F4">
-        <v>3.43</v>
+        <v>2.33</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="J4">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>50.3</v>
+        <v>52.7</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,25 +663,25 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>12.44</v>
+        <v>270.9</v>
       </c>
       <c r="E5">
-        <v>47.4</v>
+        <v>44.6</v>
       </c>
       <c r="F5">
-        <v>11.97</v>
+        <v>-0.7</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I5">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J5">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>48.5</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,28 +710,28 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>186.01</v>
+        <v>183.17</v>
       </c>
       <c r="E6">
-        <v>39.4</v>
+        <v>41.7</v>
       </c>
       <c r="F6">
-        <v>5.9</v>
+        <v>3.38</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I6">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>34.7</v>
+        <v>43.5</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -67,28 +67,28 @@
     <t>Riot Platforms, Inc.</t>
   </si>
   <si>
+    <t>MARA Holdings, Inc.</t>
+  </si>
+  <si>
+    <t>Coinbase Global, Inc.</t>
+  </si>
+  <si>
     <t>Bitcoin USD</t>
   </si>
   <si>
-    <t>MARA Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>Coinbase Global, Inc.</t>
-  </si>
-  <si>
     <t>Strategy Inc</t>
   </si>
   <si>
     <t>RIOT</t>
   </si>
   <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
     <t>BTC-USD</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>COIN</t>
   </si>
   <si>
     <t>MSTR</t>
@@ -522,28 +522,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>15.27</v>
+        <v>14.83</v>
       </c>
       <c r="E2">
-        <v>60.2</v>
+        <v>56.4</v>
       </c>
       <c r="F2">
-        <v>-5.33</v>
+        <v>-8.06</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
       <c r="H2">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I2">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K2">
-        <v>54.5</v>
+        <v>52.6</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,28 +569,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>91134.45</v>
+        <v>11.89</v>
       </c>
       <c r="E3">
-        <v>62.9</v>
+        <v>49.3</v>
       </c>
       <c r="F3">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>53.5</v>
+        <v>52.4</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>12.09</v>
+        <v>267.89</v>
       </c>
       <c r="E4">
-        <v>50.8</v>
+        <v>43.5</v>
       </c>
       <c r="F4">
-        <v>2.33</v>
+        <v>-1.81</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>56</v>
       </c>
       <c r="I4">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>52.7</v>
+        <v>48.2</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,28 +663,28 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>270.9</v>
+        <v>89492.35000000001</v>
       </c>
       <c r="E5">
-        <v>44.6</v>
+        <v>58.8</v>
       </c>
       <c r="F5">
-        <v>-0.7</v>
+        <v>-1</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>183.17</v>
+        <v>179</v>
       </c>
       <c r="E6">
-        <v>41.7</v>
+        <v>40.1</v>
       </c>
       <c r="F6">
-        <v>3.38</v>
+        <v>1.03</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="K6">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -70,12 +70,12 @@
     <t>MARA Holdings, Inc.</t>
   </si>
   <si>
+    <t>Bitcoin USD</t>
+  </si>
+  <si>
     <t>Coinbase Global, Inc.</t>
   </si>
   <si>
-    <t>Bitcoin USD</t>
-  </si>
-  <si>
     <t>Strategy Inc</t>
   </si>
   <si>
@@ -85,10 +85,10 @@
     <t>MARA</t>
   </si>
   <si>
+    <t>BTC-USD</t>
+  </si>
+  <si>
     <t>COIN</t>
-  </si>
-  <si>
-    <t>BTC-USD</t>
   </si>
   <si>
     <t>MSTR</t>
@@ -522,13 +522,13 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>14.83</v>
+        <v>14.84</v>
       </c>
       <c r="E2">
         <v>56.4</v>
       </c>
       <c r="F2">
-        <v>-8.06</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -572,10 +572,10 @@
         <v>11.89</v>
       </c>
       <c r="E3">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="F3">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="G3">
         <v>40</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>267.89</v>
+        <v>89214.23</v>
       </c>
       <c r="E4">
-        <v>43.5</v>
+        <v>58.1</v>
       </c>
       <c r="F4">
-        <v>-1.81</v>
+        <v>-1.31</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J4">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,28 +663,28 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>89492.35000000001</v>
+        <v>268.25</v>
       </c>
       <c r="E5">
-        <v>58.8</v>
+        <v>43.6</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>-1.67</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H5">
+        <v>56</v>
+      </c>
+      <c r="I5">
         <v>60</v>
       </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
       <c r="J5">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,16 +710,16 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>179</v>
+        <v>178.56</v>
       </c>
       <c r="E6">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="F6">
-        <v>1.03</v>
+        <v>0.78</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="K6">
-        <v>43.2</v>
+        <v>40.2</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -70,12 +70,12 @@
     <t>MARA Holdings, Inc.</t>
   </si>
   <si>
+    <t>Coinbase Global, Inc.</t>
+  </si>
+  <si>
     <t>Bitcoin USD</t>
   </si>
   <si>
-    <t>Coinbase Global, Inc.</t>
-  </si>
-  <si>
     <t>Strategy Inc</t>
   </si>
   <si>
@@ -85,10 +85,10 @@
     <t>MARA</t>
   </si>
   <si>
+    <t>COIN</t>
+  </si>
+  <si>
     <t>BTC-USD</t>
-  </si>
-  <si>
-    <t>COIN</t>
   </si>
   <si>
     <t>MSTR</t>
@@ -522,28 +522,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>14.84</v>
+        <v>14.93</v>
       </c>
       <c r="E2">
-        <v>56.4</v>
+        <v>57.2</v>
       </c>
       <c r="F2">
-        <v>-8.029999999999999</v>
+        <v>-7.42</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
       <c r="H2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J2">
         <v>70</v>
       </c>
       <c r="K2">
-        <v>52.6</v>
+        <v>53.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,16 +569,16 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>11.89</v>
+        <v>11.81</v>
       </c>
       <c r="E3">
-        <v>49.2</v>
+        <v>48.6</v>
       </c>
       <c r="F3">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -590,7 +590,7 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>52.4</v>
+        <v>48.9</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,28 +616,28 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>89214.23</v>
+        <v>270.42</v>
       </c>
       <c r="E4">
-        <v>58.1</v>
+        <v>44.4</v>
       </c>
       <c r="F4">
-        <v>-1.31</v>
+        <v>-0.88</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I4">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>48.4</v>
+        <v>47.7</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,28 +663,28 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>268.25</v>
+        <v>88706.96000000001</v>
       </c>
       <c r="E5">
-        <v>43.6</v>
+        <v>57</v>
       </c>
       <c r="F5">
-        <v>-1.67</v>
+        <v>-1.87</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>48.2</v>
+        <v>46.7</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,16 +710,16 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>178.56</v>
+        <v>178.95</v>
       </c>
       <c r="E6">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="F6">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="K6">
-        <v>40.2</v>
+        <v>42.7</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>

--- a/DECISION/미장_비트코인_분석.xlsx
+++ b/DECISION/미장_비트코인_분석.xlsx
@@ -64,6 +64,9 @@
     <t>2025-12-06</t>
   </si>
   <si>
+    <t>Bitcoin USD</t>
+  </si>
+  <si>
     <t>Riot Platforms, Inc.</t>
   </si>
   <si>
@@ -73,12 +76,12 @@
     <t>Coinbase Global, Inc.</t>
   </si>
   <si>
-    <t>Bitcoin USD</t>
-  </si>
-  <si>
     <t>Strategy Inc</t>
   </si>
   <si>
+    <t>BTC-USD</t>
+  </si>
+  <si>
     <t>RIOT</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>COIN</t>
-  </si>
-  <si>
-    <t>BTC-USD</t>
   </si>
   <si>
     <t>MSTR</t>
@@ -522,28 +522,28 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>14.93</v>
+        <v>89623.46000000001</v>
       </c>
       <c r="E2">
-        <v>57.2</v>
+        <v>59.9</v>
       </c>
       <c r="F2">
-        <v>-7.42</v>
+        <v>3.83</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I2">
         <v>60</v>
       </c>
       <c r="J2">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K2">
-        <v>53.7</v>
+        <v>57.7</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -569,28 +569,28 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>11.81</v>
+        <v>14.94</v>
       </c>
       <c r="E3">
-        <v>48.6</v>
+        <v>57.3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-7.38</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J3">
         <v>70</v>
       </c>
       <c r="K3">
-        <v>48.9</v>
+        <v>54.7</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
@@ -599,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -616,13 +616,13 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>270.42</v>
+        <v>11.74</v>
       </c>
       <c r="E4">
-        <v>44.4</v>
+        <v>48.1</v>
       </c>
       <c r="F4">
-        <v>-0.88</v>
+        <v>-0.59</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -631,13 +631,13 @@
         <v>56</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K4">
-        <v>47.7</v>
+        <v>49.9</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -646,7 +646,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -663,28 +663,28 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>88706.96000000001</v>
+        <v>269.73</v>
       </c>
       <c r="E5">
-        <v>57</v>
+        <v>44.1</v>
       </c>
       <c r="F5">
-        <v>-1.87</v>
+        <v>-1.13</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5">
         <v>50</v>
       </c>
-      <c r="J5">
-        <v>43</v>
-      </c>
       <c r="K5">
-        <v>46.7</v>
+        <v>48.7</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
@@ -693,7 +693,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -710,13 +710,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>178.95</v>
+        <v>178.99</v>
       </c>
       <c r="E6">
         <v>40.1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="K6">
-        <v>42.7</v>
+        <v>43.7</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>
